--- a/media/IDFC_TW/Billing/BKT 1 Target.xlsx
+++ b/media/IDFC_TW/Billing/BKT 1 Target.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohaksehgal/Documents/Work/Billing/IDFC TW/PAYOUT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC23FFB6-06F9-9142-A506-5684A449C758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3512575-E36C-A74A-8437-7B53F3151D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11760" xr2:uid="{646E2197-A100-420E-8D7C-D7BA1D7B90EC}"/>
+    <workbookView xWindow="18680" yWindow="0" windowWidth="10120" windowHeight="18000" xr2:uid="{646E2197-A100-420E-8D7C-D7BA1D7B90EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5860D104-D4D4-486A-BA4C-CEE39B4936F5}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -457,52 +457,47 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>88</v>
+        <v>89.99</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>90.01</v>
       </c>
     </row>
   </sheetData>
